--- a/version.final/course_data/2567/1/517100-2567-1-Computer Programing 1.xlsx
+++ b/version.final/course_data/2567/1/517100-2567-1-Computer Programing 1.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20/11/2024</t>
+          <t>21/11/2024</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10:0</t>
+          <t>19:46</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Collected</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Collected</t>
         </is>
       </c>
     </row>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Collected</t>
         </is>
       </c>
     </row>
